--- a/프로젝트/파이썬/코딩교실영상매크로/영상보내기.xlsx
+++ b/프로젝트/파이썬/코딩교실영상매크로/영상보내기.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\코딩교실영상매크로\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enoz1f05\Desktop\코딩교실영상매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09454A37-B200-4C19-A883-05917B9BB60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="0" windowWidth="27330" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30255" yWindow="0" windowWidth="27330" windowHeight="14535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,10 +77,6 @@
     <t>enoz7223#@@&amp;</t>
   </si>
   <si>
-    <t>5/28(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>줌아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,13 +114,17 @@
   </si>
   <si>
     <t>01054237685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -250,7 +249,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -595,16 +594,16 @@
     <row r="1" spans="1:24" ht="16.5" customHeight="1">
       <c r="A1"/>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="R1"/>
       <c r="S1"/>
@@ -617,10 +616,10 @@
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
       <c r="A2"/>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>1</v>
@@ -639,10 +638,10 @@
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
       <c r="A3"/>
       <c r="N3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>3</v>
@@ -661,10 +660,10 @@
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
       <c r="A4"/>
       <c r="N4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>5</v>
@@ -676,10 +675,10 @@
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
       <c r="A5"/>
       <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>7</v>
@@ -760,11 +759,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" location="gid=1423282975" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId3" xr:uid="{91510A8C-DBC4-4A9E-A432-6D253EF045F1}"/>
-    <hyperlink ref="O2" r:id="rId4" xr:uid="{6900EF10-E97B-4606-BBBC-5760762700C4}"/>
-    <hyperlink ref="O1" r:id="rId5" xr:uid="{ED051175-8853-482C-A179-4D8248EF83E6}"/>
+    <hyperlink ref="Q3" r:id="rId1" location="gid=1423282975"/>
+    <hyperlink ref="Q4" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="O2" r:id="rId4"/>
+    <hyperlink ref="O1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/프로젝트/파이썬/코딩교실영상매크로/영상보내기.xlsx
+++ b/프로젝트/파이썬/코딩교실영상매크로/영상보내기.xlsx
@@ -125,10 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +178,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,9 +238,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +245,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,7 +569,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -583,7 +587,7 @@
     <col min="12" max="12" width="16.875" style="7" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.75" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.25" style="12" customWidth="1"/>
+    <col min="15" max="15" width="43.25" style="11" customWidth="1"/>
     <col min="16" max="16" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="44.875" style="3" customWidth="1"/>
     <col min="18" max="19" width="14.25" style="1" bestFit="1" customWidth="1"/>
@@ -596,13 +600,13 @@
       <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="R1"/>
@@ -618,7 +622,7 @@
       <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -640,7 +644,7 @@
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -662,7 +666,7 @@
       <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -766,6 +770,6 @@
     <hyperlink ref="O1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>